--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H2">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>463.1314960986742</v>
+        <v>2156.903674325818</v>
       </c>
       <c r="R2">
-        <v>4168.183464888068</v>
+        <v>19412.13306893236</v>
       </c>
       <c r="S2">
-        <v>0.001976195923417834</v>
+        <v>0.006248578615298368</v>
       </c>
       <c r="T2">
-        <v>0.001976195923417834</v>
+        <v>0.00624857861529837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H3">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>3305.502656806141</v>
+        <v>8481.344464685284</v>
       </c>
       <c r="R3">
-        <v>29749.52391125527</v>
+        <v>76332.10018216757</v>
       </c>
       <c r="S3">
-        <v>0.01410467854217229</v>
+        <v>0.02457056765299298</v>
       </c>
       <c r="T3">
-        <v>0.01410467854217229</v>
+        <v>0.02457056765299299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H4">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>3232.465048175762</v>
+        <v>7850.258425720994</v>
       </c>
       <c r="R4">
-        <v>29092.18543358186</v>
+        <v>70652.32583148895</v>
       </c>
       <c r="S4">
-        <v>0.01379302488517119</v>
+        <v>0.02274230300936294</v>
       </c>
       <c r="T4">
-        <v>0.01379302488517119</v>
+        <v>0.02274230300936295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H5">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>942.889815925815</v>
+        <v>2039.012878233577</v>
       </c>
       <c r="R5">
-        <v>8486.008343332334</v>
+        <v>18351.11590410219</v>
       </c>
       <c r="S5">
-        <v>0.004023339000178447</v>
+        <v>0.005907047411948393</v>
       </c>
       <c r="T5">
-        <v>0.004023339000178447</v>
+        <v>0.005907047411948394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H6">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>1403.231420068231</v>
+        <v>3928.873003713873</v>
       </c>
       <c r="R6">
-        <v>12629.08278061408</v>
+        <v>35359.85703342486</v>
       </c>
       <c r="S6">
-        <v>0.005987630371309994</v>
+        <v>0.01138199731654828</v>
       </c>
       <c r="T6">
-        <v>0.005987630371309994</v>
+        <v>0.01138199731654828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H7">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>3693.688908955624</v>
+        <v>10645.49111444751</v>
       </c>
       <c r="R7">
-        <v>33243.20018060062</v>
+        <v>95809.42003002761</v>
       </c>
       <c r="S7">
-        <v>0.01576108087171977</v>
+        <v>0.03084012926440834</v>
       </c>
       <c r="T7">
-        <v>0.01576108087171977</v>
+        <v>0.03084012926440834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>3358.546500361674</v>
+        <v>6096.079292988661</v>
       </c>
       <c r="R8">
-        <v>30226.91850325506</v>
+        <v>54864.71363689795</v>
       </c>
       <c r="S8">
-        <v>0.0143310182065654</v>
+        <v>0.01766042274430196</v>
       </c>
       <c r="T8">
-        <v>0.0143310182065654</v>
+        <v>0.01766042274430196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>23970.91209185905</v>
@@ -1013,10 +1013,10 @@
         <v>215738.2088267314</v>
       </c>
       <c r="S9">
-        <v>0.1022845976911194</v>
+        <v>0.06944405096495811</v>
       </c>
       <c r="T9">
-        <v>0.1022845976911194</v>
+        <v>0.06944405096495813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>23441.25646073332</v>
+        <v>22187.2670547542</v>
       </c>
       <c r="R10">
-        <v>210971.3081465999</v>
+        <v>199685.4034927878</v>
       </c>
       <c r="S10">
-        <v>0.1000245412970646</v>
+        <v>0.06427680758325258</v>
       </c>
       <c r="T10">
-        <v>0.1000245412970646</v>
+        <v>0.06427680758325262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>6837.667742704348</v>
+        <v>5762.883309576701</v>
       </c>
       <c r="R11">
-        <v>61539.00968433912</v>
+        <v>51865.94978619031</v>
       </c>
       <c r="S11">
-        <v>0.02917653243764485</v>
+        <v>0.01669514955132914</v>
       </c>
       <c r="T11">
-        <v>0.02917653243764485</v>
+        <v>0.01669514955132914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>10175.98244724775</v>
+        <v>11104.21464241261</v>
       </c>
       <c r="R12">
-        <v>91583.84202522978</v>
+        <v>99937.93178171346</v>
       </c>
       <c r="S12">
-        <v>0.04342122096731227</v>
+        <v>0.03216905742253429</v>
       </c>
       <c r="T12">
-        <v>0.04342122096731227</v>
+        <v>0.03216905742253429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>26785.96913208977</v>
+        <v>30087.46228167222</v>
       </c>
       <c r="R13">
-        <v>241073.7221888079</v>
+        <v>270787.1605350499</v>
       </c>
       <c r="S13">
-        <v>0.1142965301421729</v>
+        <v>0.08716377816947134</v>
       </c>
       <c r="T13">
-        <v>0.1142965301421729</v>
+        <v>0.08716377816947135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H14">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>1494.522306775114</v>
+        <v>4466.342571213067</v>
       </c>
       <c r="R14">
-        <v>13450.70076097602</v>
+        <v>40197.0831409176</v>
       </c>
       <c r="S14">
-        <v>0.006377171310924479</v>
+        <v>0.01293905379794115</v>
       </c>
       <c r="T14">
-        <v>0.00637717131092448</v>
+        <v>0.01293905379794115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H15">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>10666.83543942915</v>
+        <v>17562.48565693899</v>
       </c>
       <c r="R15">
-        <v>96001.51895486235</v>
+        <v>158062.3709124509</v>
       </c>
       <c r="S15">
-        <v>0.04551570534230637</v>
+        <v>0.05087875439858705</v>
       </c>
       <c r="T15">
-        <v>0.04551570534230639</v>
+        <v>0.05087875439858706</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H16">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>10431.14355440055</v>
+        <v>16255.68346847062</v>
       </c>
       <c r="R16">
-        <v>93880.29198960496</v>
+        <v>146301.1512162356</v>
       </c>
       <c r="S16">
-        <v>0.04451000103089641</v>
+        <v>0.04709293108784468</v>
       </c>
       <c r="T16">
-        <v>0.04451000103089642</v>
+        <v>0.04709293108784469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H17">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>3042.699264901593</v>
+        <v>4222.223796875332</v>
       </c>
       <c r="R17">
-        <v>27384.29338411434</v>
+        <v>38000.01417187799</v>
       </c>
       <c r="S17">
-        <v>0.01298328862134623</v>
+        <v>0.01223183846372071</v>
       </c>
       <c r="T17">
-        <v>0.01298328862134623</v>
+        <v>0.01223183846372072</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H18">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>4528.218608593343</v>
+        <v>8135.594075086315</v>
       </c>
       <c r="R18">
-        <v>40753.96747734008</v>
+        <v>73220.34667577682</v>
       </c>
       <c r="S18">
-        <v>0.0193220440199566</v>
+        <v>0.02356892417841617</v>
       </c>
       <c r="T18">
-        <v>0.01932204401995661</v>
+        <v>0.02356892417841617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H19">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>11919.50993448708</v>
+        <v>22043.82639887194</v>
       </c>
       <c r="R19">
-        <v>107275.5894103837</v>
+        <v>198394.4375898475</v>
       </c>
       <c r="S19">
-        <v>0.05086090481881864</v>
+        <v>0.06386125809646784</v>
       </c>
       <c r="T19">
-        <v>0.05086090481881866</v>
+        <v>0.06386125809646784</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H20">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>597.4112276337838</v>
+        <v>1194.69775502481</v>
       </c>
       <c r="R20">
-        <v>5376.701048704053</v>
+        <v>10752.27979522329</v>
       </c>
       <c r="S20">
-        <v>0.002549171547603815</v>
+        <v>0.003461055276901217</v>
       </c>
       <c r="T20">
-        <v>0.002549171547603815</v>
+        <v>0.003461055276901218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H21">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>4263.895711658864</v>
+        <v>4697.772697113497</v>
       </c>
       <c r="R21">
-        <v>38375.06140492978</v>
+        <v>42279.95427402147</v>
       </c>
       <c r="S21">
-        <v>0.0181941703257939</v>
+        <v>0.01360950994897406</v>
       </c>
       <c r="T21">
-        <v>0.0181941703257939</v>
+        <v>0.01360950994897407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H22">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>4169.681675682321</v>
+        <v>4348.217414254701</v>
       </c>
       <c r="R22">
-        <v>37527.13508114089</v>
+        <v>39133.9567282923</v>
       </c>
       <c r="S22">
-        <v>0.01779215622095764</v>
+        <v>0.01259684364804675</v>
       </c>
       <c r="T22">
-        <v>0.01779215622095765</v>
+        <v>0.01259684364804676</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H23">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>1216.270038208801</v>
+        <v>1129.39865469595</v>
       </c>
       <c r="R23">
-        <v>10946.43034387921</v>
+        <v>10164.58789226355</v>
       </c>
       <c r="S23">
-        <v>0.005189860572063923</v>
+        <v>0.003271882915256151</v>
       </c>
       <c r="T23">
-        <v>0.005189860572063923</v>
+        <v>0.003271882915256151</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H24">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>1810.082476313922</v>
+        <v>2176.182373457957</v>
       </c>
       <c r="R24">
-        <v>16290.7422868253</v>
+        <v>19585.64136112161</v>
       </c>
       <c r="S24">
-        <v>0.00772367597728552</v>
+        <v>0.006304429262947484</v>
       </c>
       <c r="T24">
-        <v>0.00772367597728552</v>
+        <v>0.006304429262947484</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H25">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>4764.632170743846</v>
+        <v>5896.482298655415</v>
       </c>
       <c r="R25">
-        <v>42881.68953669461</v>
+        <v>53068.34068789872</v>
       </c>
       <c r="S25">
-        <v>0.02033082774919572</v>
+        <v>0.01708218759856306</v>
       </c>
       <c r="T25">
-        <v>0.02033082774919572</v>
+        <v>0.01708218759856306</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H26">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>1083.611550444597</v>
+        <v>2338.026039113187</v>
       </c>
       <c r="R26">
-        <v>9752.503954001373</v>
+        <v>21042.23435201868</v>
       </c>
       <c r="S26">
-        <v>0.004623802843460341</v>
+        <v>0.006773292513667695</v>
       </c>
       <c r="T26">
-        <v>0.004623802843460341</v>
+        <v>0.006773292513667696</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H27">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>7734.047217935889</v>
+        <v>9193.551126626375</v>
       </c>
       <c r="R27">
-        <v>69606.42496142302</v>
+        <v>82741.96013963738</v>
       </c>
       <c r="S27">
-        <v>0.03300141042523604</v>
+        <v>0.02663383981968775</v>
       </c>
       <c r="T27">
-        <v>0.03300141042523604</v>
+        <v>0.02663383981968775</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H28">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>7563.15753110736</v>
+        <v>8509.470697081691</v>
       </c>
       <c r="R28">
-        <v>68068.41777996624</v>
+        <v>76585.23627373522</v>
       </c>
       <c r="S28">
-        <v>0.03227221902860353</v>
+        <v>0.02465204972211506</v>
       </c>
       <c r="T28">
-        <v>0.03227221902860354</v>
+        <v>0.02465204972211507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H29">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>2206.125698512427</v>
+        <v>2210.235561348065</v>
       </c>
       <c r="R29">
-        <v>19855.13128661185</v>
+        <v>19892.12005213259</v>
       </c>
       <c r="S29">
-        <v>0.009413604232649081</v>
+        <v>0.00640308180091925</v>
       </c>
       <c r="T29">
-        <v>0.009413604232649081</v>
+        <v>0.006403081800919251</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H30">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>3283.209601466495</v>
+        <v>4258.793517945617</v>
       </c>
       <c r="R30">
-        <v>29548.88641319846</v>
+        <v>38329.14166151055</v>
       </c>
       <c r="S30">
-        <v>0.01400955340934532</v>
+        <v>0.01233778143176662</v>
       </c>
       <c r="T30">
-        <v>0.01400955340934532</v>
+        <v>0.01233778143176663</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H31">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>8642.305693328712</v>
+        <v>11539.42835787788</v>
       </c>
       <c r="R31">
-        <v>77780.75123995841</v>
+        <v>103854.855220901</v>
       </c>
       <c r="S31">
-        <v>0.0368769764612341</v>
+        <v>0.03342987734134262</v>
       </c>
       <c r="T31">
-        <v>0.03687697646123411</v>
+        <v>0.03342987734134262</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H32">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>1325.601840859196</v>
+        <v>4958.398641353991</v>
       </c>
       <c r="R32">
-        <v>11930.41656773276</v>
+        <v>44625.58777218591</v>
       </c>
       <c r="S32">
-        <v>0.005656382638728981</v>
+        <v>0.01436454677382537</v>
       </c>
       <c r="T32">
-        <v>0.005656382638728981</v>
+        <v>0.01436454677382538</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H33">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>9461.201502679936</v>
+        <v>19497.34119846379</v>
       </c>
       <c r="R33">
-        <v>85150.81352411942</v>
+        <v>175476.0707861741</v>
       </c>
       <c r="S33">
-        <v>0.04037122933277503</v>
+        <v>0.05648405662157223</v>
       </c>
       <c r="T33">
-        <v>0.04037122933277504</v>
+        <v>0.05648405662157224</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H34">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>9252.149021326442</v>
+        <v>18046.56887356797</v>
       </c>
       <c r="R34">
-        <v>83269.34119193799</v>
+        <v>162419.1198621117</v>
       </c>
       <c r="S34">
-        <v>0.03947919615232569</v>
+        <v>0.05228114991186751</v>
       </c>
       <c r="T34">
-        <v>0.0394791961523257</v>
+        <v>0.05228114991186752</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H35">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>2698.793941348241</v>
+        <v>4687.385350343384</v>
       </c>
       <c r="R35">
-        <v>24289.14547213417</v>
+        <v>42186.46815309045</v>
       </c>
       <c r="S35">
-        <v>0.01151583433639078</v>
+        <v>0.01357941766730659</v>
       </c>
       <c r="T35">
-        <v>0.01151583433639078</v>
+        <v>0.01357941766730659</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H36">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>4016.410391569644</v>
+        <v>9031.890851480133</v>
       </c>
       <c r="R36">
-        <v>36147.69352412679</v>
+        <v>81287.01766332118</v>
       </c>
       <c r="S36">
-        <v>0.01713814307481663</v>
+        <v>0.0261655078537098</v>
       </c>
       <c r="T36">
-        <v>0.01713814307481663</v>
+        <v>0.02616550785370981</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H37">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>10572.29071768757</v>
+        <v>24472.3903560141</v>
       </c>
       <c r="R37">
-        <v>95150.61645918812</v>
+        <v>220251.5132041269</v>
       </c>
       <c r="S37">
-        <v>0.0451122801914361</v>
+        <v>0.07089684016214635</v>
       </c>
       <c r="T37">
-        <v>0.04511228019143611</v>
+        <v>0.07089684016214637</v>
       </c>
     </row>
   </sheetData>
